--- a/trevi 2023 0502-0505 週報表.xlsx
+++ b/trevi 2023 0502-0505 週報表.xlsx
@@ -5,6 +5,7 @@
   <sheets>
     <sheet state="visible" name="本週報表" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="本週報表(人力）" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="vicky" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -12,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="208">
   <si>
     <t>Trevi 本週週報 - 2023 05/02- 05/05</t>
   </si>
@@ -618,6 +619,48 @@
   </si>
   <si>
     <t>部門名稱</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">官網(菲) </t>
+  </si>
+  <si>
+    <t>slot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G08 </t>
+  </si>
+  <si>
+    <t>官網(台)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G03 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">G04 </t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>Slot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">官網(台) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">slot </t>
   </si>
 </sst>
 </file>
@@ -1082,7 +1125,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="234">
+  <cellXfs count="244">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1729,6 +1772,36 @@
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="11" fillId="5" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="6" fillId="5" fontId="43" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1742,6 +1815,10 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -8261,4 +8338,1178 @@
   <pageSetup fitToHeight="0" paperSize="9" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="3" max="3" width="8.25"/>
+    <col customWidth="1" min="4" max="4" width="42.38"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="234" t="s">
+        <v>194</v>
+      </c>
+      <c r="B1" s="235"/>
+      <c r="C1" s="235" t="s">
+        <v>195</v>
+      </c>
+      <c r="D1" s="235" t="s">
+        <v>196</v>
+      </c>
+      <c r="E1" s="236"/>
+      <c r="F1" s="237" t="s">
+        <v>197</v>
+      </c>
+      <c r="G1" s="237"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="126" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="127" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="238" t="s">
+        <v>198</v>
+      </c>
+      <c r="D2" s="128" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="129" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" s="130">
+        <v>2.0</v>
+      </c>
+      <c r="G2" s="130"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="64"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="238" t="s">
+        <v>199</v>
+      </c>
+      <c r="D3" s="128" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" s="129"/>
+      <c r="F3" s="130">
+        <v>40.0</v>
+      </c>
+      <c r="G3" s="130"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="135" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" s="136" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="128" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="128" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" s="129" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4" s="131">
+        <v>8.0</v>
+      </c>
+      <c r="G4" s="131"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="138"/>
+      <c r="B5" s="138"/>
+      <c r="C5" s="128" t="s">
+        <v>200</v>
+      </c>
+      <c r="D5" s="128" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="129"/>
+      <c r="F5" s="131">
+        <v>8.0</v>
+      </c>
+      <c r="G5" s="131"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="64"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="128" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="128" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" s="129" t="s">
+        <v>89</v>
+      </c>
+      <c r="F6" s="131">
+        <v>16.0</v>
+      </c>
+      <c r="G6" s="131"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="239" t="s">
+        <v>99</v>
+      </c>
+      <c r="B7" s="136" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="128" t="s">
+        <v>201</v>
+      </c>
+      <c r="D7" s="128" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" s="129"/>
+      <c r="F7" s="131">
+        <v>24.0</v>
+      </c>
+      <c r="G7" s="131"/>
+    </row>
+    <row r="8">
+      <c r="B8" s="64"/>
+      <c r="C8" s="128" t="s">
+        <v>198</v>
+      </c>
+      <c r="D8" s="128" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" s="129" t="s">
+        <v>89</v>
+      </c>
+      <c r="F8" s="131">
+        <v>2.0</v>
+      </c>
+      <c r="G8" s="131"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="128" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" s="128" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="128" t="s">
+        <v>106</v>
+      </c>
+      <c r="E9" s="129" t="s">
+        <v>89</v>
+      </c>
+      <c r="F9" s="131">
+        <v>17.5</v>
+      </c>
+      <c r="G9" s="131"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="131" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10" s="128" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" s="128" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="128" t="s">
+        <v>110</v>
+      </c>
+      <c r="E10" s="129" t="s">
+        <v>89</v>
+      </c>
+      <c r="F10" s="131">
+        <v>32.0</v>
+      </c>
+      <c r="G10" s="131"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="135" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" s="136" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" s="128" t="s">
+        <v>202</v>
+      </c>
+      <c r="D11" s="128" t="s">
+        <v>113</v>
+      </c>
+      <c r="E11" s="129" t="s">
+        <v>114</v>
+      </c>
+      <c r="F11" s="131">
+        <v>8.0</v>
+      </c>
+      <c r="G11" s="135"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="64"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="128" t="s">
+        <v>203</v>
+      </c>
+      <c r="D12" s="128" t="s">
+        <v>116</v>
+      </c>
+      <c r="E12" s="129" t="s">
+        <v>114</v>
+      </c>
+      <c r="F12" s="131">
+        <v>13.5</v>
+      </c>
+      <c r="G12" s="131"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="155" t="s">
+        <v>118</v>
+      </c>
+      <c r="B13" s="136" t="s">
+        <v>119</v>
+      </c>
+      <c r="C13" s="240" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="128" t="s">
+        <v>120</v>
+      </c>
+      <c r="E13" s="129"/>
+      <c r="F13" s="156">
+        <v>8.0</v>
+      </c>
+      <c r="G13" s="157"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="138"/>
+      <c r="B14" s="138"/>
+      <c r="C14" s="240" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="128" t="s">
+        <v>122</v>
+      </c>
+      <c r="E14" s="129" t="s">
+        <v>89</v>
+      </c>
+      <c r="F14" s="156">
+        <v>4.0</v>
+      </c>
+      <c r="G14" s="157"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="138"/>
+      <c r="B15" s="138"/>
+      <c r="C15" s="240" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="128" t="s">
+        <v>124</v>
+      </c>
+      <c r="E15" s="129" t="s">
+        <v>89</v>
+      </c>
+      <c r="F15" s="156">
+        <v>4.0</v>
+      </c>
+      <c r="G15" s="157"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="138"/>
+      <c r="B16" s="138"/>
+      <c r="C16" s="240" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="128" t="s">
+        <v>125</v>
+      </c>
+      <c r="E16" s="129" t="s">
+        <v>114</v>
+      </c>
+      <c r="F16" s="156">
+        <v>8.0</v>
+      </c>
+      <c r="G16" s="157"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="138"/>
+      <c r="B17" s="138"/>
+      <c r="C17" s="240" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="160" t="s">
+        <v>126</v>
+      </c>
+      <c r="E17" s="129" t="s">
+        <v>114</v>
+      </c>
+      <c r="F17" s="156">
+        <v>4.0</v>
+      </c>
+      <c r="G17" s="157"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="64"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="240" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="128" t="s">
+        <v>127</v>
+      </c>
+      <c r="E18" s="129" t="s">
+        <v>89</v>
+      </c>
+      <c r="F18" s="156">
+        <v>4.0</v>
+      </c>
+      <c r="G18" s="157"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="140" t="s">
+        <v>128</v>
+      </c>
+      <c r="B19" s="128" t="s">
+        <v>119</v>
+      </c>
+      <c r="C19" s="240" t="s">
+        <v>199</v>
+      </c>
+      <c r="D19" s="128" t="s">
+        <v>129</v>
+      </c>
+      <c r="E19" s="129"/>
+      <c r="F19" s="162">
+        <v>32.0</v>
+      </c>
+      <c r="G19" s="157"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="155" t="s">
+        <v>130</v>
+      </c>
+      <c r="B20" s="136" t="s">
+        <v>131</v>
+      </c>
+      <c r="C20" s="240" t="s">
+        <v>199</v>
+      </c>
+      <c r="D20" s="128" t="s">
+        <v>132</v>
+      </c>
+      <c r="E20" s="129"/>
+      <c r="F20" s="131">
+        <v>7.0</v>
+      </c>
+      <c r="G20" s="157"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="138"/>
+      <c r="B21" s="138"/>
+      <c r="C21" s="128" t="s">
+        <v>198</v>
+      </c>
+      <c r="D21" s="128" t="s">
+        <v>133</v>
+      </c>
+      <c r="E21" s="129" t="s">
+        <v>89</v>
+      </c>
+      <c r="F21" s="131">
+        <v>10.0</v>
+      </c>
+      <c r="G21" s="157"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="138"/>
+      <c r="B22" s="138"/>
+      <c r="C22" s="128" t="s">
+        <v>204</v>
+      </c>
+      <c r="D22" s="128" t="s">
+        <v>134</v>
+      </c>
+      <c r="E22" s="129"/>
+      <c r="F22" s="131">
+        <v>4.0</v>
+      </c>
+      <c r="G22" s="157"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="64"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="128" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" s="128" t="s">
+        <v>135</v>
+      </c>
+      <c r="E23" s="129" t="s">
+        <v>89</v>
+      </c>
+      <c r="F23" s="131">
+        <v>7.0</v>
+      </c>
+      <c r="G23" s="157"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="155" t="s">
+        <v>136</v>
+      </c>
+      <c r="B24" s="136" t="s">
+        <v>131</v>
+      </c>
+      <c r="C24" s="128" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="128" t="s">
+        <v>137</v>
+      </c>
+      <c r="E24" s="129" t="s">
+        <v>114</v>
+      </c>
+      <c r="F24" s="131">
+        <v>4.0</v>
+      </c>
+      <c r="G24" s="157"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="138"/>
+      <c r="B25" s="138"/>
+      <c r="C25" s="128" t="s">
+        <v>201</v>
+      </c>
+      <c r="D25" s="128" t="s">
+        <v>138</v>
+      </c>
+      <c r="E25" s="129" t="s">
+        <v>114</v>
+      </c>
+      <c r="F25" s="131">
+        <v>7.0</v>
+      </c>
+      <c r="G25" s="157"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="138"/>
+      <c r="B26" s="138"/>
+      <c r="C26" s="128" t="s">
+        <v>204</v>
+      </c>
+      <c r="D26" s="128" t="s">
+        <v>139</v>
+      </c>
+      <c r="E26" s="129" t="s">
+        <v>89</v>
+      </c>
+      <c r="F26" s="131">
+        <v>6.0</v>
+      </c>
+      <c r="G26" s="157"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="64"/>
+      <c r="B27" s="64"/>
+      <c r="C27" s="128" t="s">
+        <v>199</v>
+      </c>
+      <c r="D27" s="128" t="s">
+        <v>140</v>
+      </c>
+      <c r="E27" s="129" t="s">
+        <v>114</v>
+      </c>
+      <c r="F27" s="131">
+        <v>16.0</v>
+      </c>
+      <c r="G27" s="157"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="140" t="s">
+        <v>141</v>
+      </c>
+      <c r="B28" s="128" t="s">
+        <v>131</v>
+      </c>
+      <c r="C28" s="128" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="128" t="s">
+        <v>142</v>
+      </c>
+      <c r="E28" s="129" t="s">
+        <v>114</v>
+      </c>
+      <c r="F28" s="131">
+        <v>32.0</v>
+      </c>
+      <c r="G28" s="157"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="155" t="s">
+        <v>143</v>
+      </c>
+      <c r="B29" s="136" t="s">
+        <v>144</v>
+      </c>
+      <c r="C29" s="128" t="s">
+        <v>204</v>
+      </c>
+      <c r="D29" s="128" t="s">
+        <v>145</v>
+      </c>
+      <c r="E29" s="129" t="s">
+        <v>89</v>
+      </c>
+      <c r="F29" s="131">
+        <v>12.0</v>
+      </c>
+      <c r="G29" s="157"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="138"/>
+      <c r="B30" s="138"/>
+      <c r="C30" s="128" t="s">
+        <v>204</v>
+      </c>
+      <c r="D30" s="128" t="s">
+        <v>146</v>
+      </c>
+      <c r="E30" s="129" t="s">
+        <v>89</v>
+      </c>
+      <c r="F30" s="131">
+        <v>6.0</v>
+      </c>
+      <c r="G30" s="157"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="138"/>
+      <c r="B31" s="138"/>
+      <c r="C31" s="128" t="s">
+        <v>204</v>
+      </c>
+      <c r="D31" s="128" t="s">
+        <v>147</v>
+      </c>
+      <c r="E31" s="129" t="s">
+        <v>89</v>
+      </c>
+      <c r="F31" s="131">
+        <v>2.0</v>
+      </c>
+      <c r="G31" s="157"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="64"/>
+      <c r="B32" s="64"/>
+      <c r="C32" s="128" t="s">
+        <v>202</v>
+      </c>
+      <c r="D32" s="128" t="s">
+        <v>148</v>
+      </c>
+      <c r="E32" s="129" t="s">
+        <v>89</v>
+      </c>
+      <c r="F32" s="131">
+        <v>1.0</v>
+      </c>
+      <c r="G32" s="157"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="155" t="s">
+        <v>149</v>
+      </c>
+      <c r="B33" s="136" t="s">
+        <v>150</v>
+      </c>
+      <c r="C33" s="128" t="s">
+        <v>205</v>
+      </c>
+      <c r="D33" s="128" t="s">
+        <v>151</v>
+      </c>
+      <c r="E33" s="165"/>
+      <c r="F33" s="131">
+        <v>4.0</v>
+      </c>
+      <c r="G33" s="157"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="138"/>
+      <c r="B34" s="138"/>
+      <c r="C34" s="240" t="s">
+        <v>205</v>
+      </c>
+      <c r="D34" s="166" t="s">
+        <v>152</v>
+      </c>
+      <c r="E34" s="167" t="s">
+        <v>89</v>
+      </c>
+      <c r="F34" s="162">
+        <v>8.0</v>
+      </c>
+      <c r="G34" s="168"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="64"/>
+      <c r="B35" s="64"/>
+      <c r="C35" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="D35" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="E35" s="170" t="s">
+        <v>89</v>
+      </c>
+      <c r="F35" s="162">
+        <v>12.0</v>
+      </c>
+      <c r="G35" s="168"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="171" t="s">
+        <v>154</v>
+      </c>
+      <c r="B36" s="172" t="s">
+        <v>155</v>
+      </c>
+      <c r="C36" s="241" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="E36" s="173" t="s">
+        <v>114</v>
+      </c>
+      <c r="F36" s="162">
+        <v>3.0</v>
+      </c>
+      <c r="G36" s="168"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="138"/>
+      <c r="B37" s="175"/>
+      <c r="C37" s="241" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="E37" s="176" t="s">
+        <v>114</v>
+      </c>
+      <c r="F37" s="162">
+        <v>2.0</v>
+      </c>
+      <c r="G37" s="177"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="138"/>
+      <c r="B38" s="175"/>
+      <c r="C38" s="241" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="E38" s="180" t="s">
+        <v>114</v>
+      </c>
+      <c r="F38" s="162">
+        <v>3.0</v>
+      </c>
+      <c r="G38" s="177"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="138"/>
+      <c r="B39" s="175"/>
+      <c r="C39" s="182" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="182" t="s">
+        <v>158</v>
+      </c>
+      <c r="E39" s="176" t="s">
+        <v>114</v>
+      </c>
+      <c r="F39" s="183">
+        <v>2.0</v>
+      </c>
+      <c r="G39" s="177"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="138"/>
+      <c r="B40" s="175"/>
+      <c r="C40" s="182" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="182" t="s">
+        <v>159</v>
+      </c>
+      <c r="E40" s="180" t="s">
+        <v>114</v>
+      </c>
+      <c r="F40" s="183">
+        <v>20.0</v>
+      </c>
+      <c r="G40" s="177"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="64"/>
+      <c r="B41" s="134"/>
+      <c r="C41" s="182" t="s">
+        <v>204</v>
+      </c>
+      <c r="D41" s="182" t="s">
+        <v>160</v>
+      </c>
+      <c r="E41" s="180"/>
+      <c r="F41" s="183">
+        <v>8.0</v>
+      </c>
+      <c r="G41" s="177"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="184" t="s">
+        <v>161</v>
+      </c>
+      <c r="B42" s="185" t="s">
+        <v>155</v>
+      </c>
+      <c r="C42" s="242" t="s">
+        <v>204</v>
+      </c>
+      <c r="D42" s="186" t="s">
+        <v>162</v>
+      </c>
+      <c r="E42" s="187"/>
+      <c r="F42" s="188">
+        <v>2.0</v>
+      </c>
+      <c r="G42" s="189"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="64"/>
+      <c r="B43" s="134"/>
+      <c r="C43" s="182" t="s">
+        <v>206</v>
+      </c>
+      <c r="D43" s="182" t="s">
+        <v>163</v>
+      </c>
+      <c r="E43" s="192" t="s">
+        <v>114</v>
+      </c>
+      <c r="F43" s="188">
+        <v>25.0</v>
+      </c>
+      <c r="G43" s="189"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="193" t="s">
+        <v>164</v>
+      </c>
+      <c r="B44" s="185" t="s">
+        <v>155</v>
+      </c>
+      <c r="C44" s="213" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="E44" s="194" t="s">
+        <v>89</v>
+      </c>
+      <c r="F44" s="188">
+        <v>12.0</v>
+      </c>
+      <c r="G44" s="189"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="138"/>
+      <c r="B45" s="175"/>
+      <c r="C45" s="213" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E45" s="194" t="s">
+        <v>89</v>
+      </c>
+      <c r="F45" s="188">
+        <v>3.0</v>
+      </c>
+      <c r="G45" s="189"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="64"/>
+      <c r="B46" s="134"/>
+      <c r="C46" s="213" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="E46" s="194" t="s">
+        <v>89</v>
+      </c>
+      <c r="F46" s="188">
+        <v>8.0</v>
+      </c>
+      <c r="G46" s="189"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="196" t="s">
+        <v>167</v>
+      </c>
+      <c r="B47" s="197" t="s">
+        <v>155</v>
+      </c>
+      <c r="C47" s="182" t="s">
+        <v>202</v>
+      </c>
+      <c r="D47" s="198" t="s">
+        <v>168</v>
+      </c>
+      <c r="E47" s="199" t="s">
+        <v>89</v>
+      </c>
+      <c r="F47" s="188">
+        <v>32.0</v>
+      </c>
+      <c r="G47" s="189"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="196" t="s">
+        <v>169</v>
+      </c>
+      <c r="B48" s="197" t="s">
+        <v>155</v>
+      </c>
+      <c r="C48" s="182" t="s">
+        <v>202</v>
+      </c>
+      <c r="D48" s="182" t="s">
+        <v>170</v>
+      </c>
+      <c r="E48" s="199" t="s">
+        <v>89</v>
+      </c>
+      <c r="F48" s="188">
+        <v>32.0</v>
+      </c>
+      <c r="G48" s="202"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="205" t="s">
+        <v>171</v>
+      </c>
+      <c r="B49" s="206" t="s">
+        <v>155</v>
+      </c>
+      <c r="C49" s="243" t="s">
+        <v>202</v>
+      </c>
+      <c r="D49" s="207" t="s">
+        <v>172</v>
+      </c>
+      <c r="E49" s="208" t="s">
+        <v>114</v>
+      </c>
+      <c r="F49" s="183">
+        <v>16.0</v>
+      </c>
+      <c r="G49" s="203"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="64"/>
+      <c r="B50" s="134"/>
+      <c r="C50" s="243" t="s">
+        <v>204</v>
+      </c>
+      <c r="D50" s="207" t="s">
+        <v>173</v>
+      </c>
+      <c r="E50" s="199" t="s">
+        <v>114</v>
+      </c>
+      <c r="F50" s="183">
+        <v>16.0</v>
+      </c>
+      <c r="G50" s="203"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="193" t="s">
+        <v>174</v>
+      </c>
+      <c r="B51" s="212" t="s">
+        <v>155</v>
+      </c>
+      <c r="C51" s="213" t="s">
+        <v>207</v>
+      </c>
+      <c r="D51" s="213" t="s">
+        <v>175</v>
+      </c>
+      <c r="E51" s="199" t="s">
+        <v>114</v>
+      </c>
+      <c r="F51" s="28">
+        <v>7.0</v>
+      </c>
+      <c r="G51" s="214">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="138"/>
+      <c r="B52" s="175"/>
+      <c r="C52" s="213" t="s">
+        <v>11</v>
+      </c>
+      <c r="D52" s="213" t="s">
+        <v>176</v>
+      </c>
+      <c r="E52" s="208" t="s">
+        <v>89</v>
+      </c>
+      <c r="F52" s="183">
+        <v>4.0</v>
+      </c>
+      <c r="G52" s="216"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="138"/>
+      <c r="B53" s="175"/>
+      <c r="C53" s="213" t="s">
+        <v>198</v>
+      </c>
+      <c r="D53" s="213" t="s">
+        <v>177</v>
+      </c>
+      <c r="E53" s="199" t="s">
+        <v>114</v>
+      </c>
+      <c r="F53" s="183">
+        <v>5.0</v>
+      </c>
+      <c r="G53" s="216"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="138"/>
+      <c r="B54" s="175"/>
+      <c r="C54" s="213" t="s">
+        <v>201</v>
+      </c>
+      <c r="D54" s="213" t="s">
+        <v>178</v>
+      </c>
+      <c r="E54" s="208" t="s">
+        <v>89</v>
+      </c>
+      <c r="F54" s="183">
+        <v>0.5</v>
+      </c>
+      <c r="G54" s="216"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="138"/>
+      <c r="B55" s="175"/>
+      <c r="C55" s="213" t="s">
+        <v>204</v>
+      </c>
+      <c r="D55" s="213" t="s">
+        <v>179</v>
+      </c>
+      <c r="E55" s="199" t="s">
+        <v>114</v>
+      </c>
+      <c r="F55" s="183">
+        <v>7.0</v>
+      </c>
+      <c r="G55" s="216"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="64"/>
+      <c r="B56" s="134"/>
+      <c r="C56" s="166" t="s">
+        <v>30</v>
+      </c>
+      <c r="D56" s="213" t="s">
+        <v>180</v>
+      </c>
+      <c r="E56" s="208" t="s">
+        <v>89</v>
+      </c>
+      <c r="F56" s="183">
+        <v>6.0</v>
+      </c>
+      <c r="G56" s="216"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="218" t="s">
+        <v>181</v>
+      </c>
+      <c r="B57" s="185" t="s">
+        <v>182</v>
+      </c>
+      <c r="C57" s="213" t="s">
+        <v>199</v>
+      </c>
+      <c r="D57" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="E57" s="199" t="s">
+        <v>89</v>
+      </c>
+      <c r="F57" s="219">
+        <v>8.0</v>
+      </c>
+      <c r="G57" s="216"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="138"/>
+      <c r="B58" s="175"/>
+      <c r="C58" s="213" t="s">
+        <v>199</v>
+      </c>
+      <c r="D58" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="E58" s="199"/>
+      <c r="F58" s="219">
+        <v>8.0</v>
+      </c>
+      <c r="G58" s="216"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="138"/>
+      <c r="B59" s="175"/>
+      <c r="C59" s="213" t="s">
+        <v>199</v>
+      </c>
+      <c r="D59" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="E59" s="199" t="s">
+        <v>89</v>
+      </c>
+      <c r="F59" s="219">
+        <v>8.0</v>
+      </c>
+      <c r="G59" s="216"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="64"/>
+      <c r="B60" s="134"/>
+      <c r="C60" s="213" t="s">
+        <v>199</v>
+      </c>
+      <c r="D60" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="E60" s="199"/>
+      <c r="F60" s="219">
+        <v>8.0</v>
+      </c>
+      <c r="G60" s="216"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="218" t="s">
+        <v>189</v>
+      </c>
+      <c r="B61" s="212" t="s">
+        <v>182</v>
+      </c>
+      <c r="C61" s="213" t="s">
+        <v>199</v>
+      </c>
+      <c r="D61" s="213" t="s">
+        <v>190</v>
+      </c>
+      <c r="E61" s="199" t="s">
+        <v>89</v>
+      </c>
+      <c r="F61" s="162">
+        <v>25.0</v>
+      </c>
+      <c r="G61" s="214">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="64"/>
+      <c r="B62" s="134"/>
+      <c r="C62" s="213" t="s">
+        <v>30</v>
+      </c>
+      <c r="D62" s="213" t="s">
+        <v>191</v>
+      </c>
+      <c r="E62" s="199" t="s">
+        <v>89</v>
+      </c>
+      <c r="F62" s="162">
+        <v>1.0</v>
+      </c>
+      <c r="G62" s="216"/>
+    </row>
+  </sheetData>
+  <mergeCells count="32">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B18"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A51:A56"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="A13:A18"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="A36:A41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B51:B56"/>
+    <mergeCell ref="B57:B60"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="B36:B41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B61:B62"/>
+  </mergeCells>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>